--- a/file/batch_mode/userInfo.xlsx
+++ b/file/batch_mode/userInfo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoyuan/Online_Exam/file/batch_mode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD0C92-6FB1-724B-B8F4-DDAA3792990E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E943B8-B0AF-FF40-9F99-D45C82898D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="2400" windowWidth="20100" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="2320" windowWidth="20100" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="ClassInfo" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="UserType" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Col_SpeInfo" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -470,19 +470,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA5FA0AA-29AC-094E-B3C0-B52E1B4999A7}">
           <x14:formula1>
-            <xm:f>Sheet2!$A:$A</xm:f>
+            <xm:f>UserType!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{601BA9F5-F75D-2D4B-A612-6921F5ABFFDE}">
           <x14:formula1>
-            <xm:f>Sheet3!$1:$1</xm:f>
+            <xm:f>Col_SpeInfo!$1:$1</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C86A816E-77D0-0B4E-A1EB-5C045DB41E55}">
           <x14:formula1>
-            <xm:f>Sheet4!$A:$A</xm:f>
+            <xm:f>ClassInfo!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -497,7 +497,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
